--- a/Quant/A50/csv/A50.xlsx
+++ b/Quant/A50/csv/A50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\python\Quant\A50\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A368E9-E495-4C68-8918-CEE711F78C54}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AD89EC-0EB5-4FAB-8BED-8CF256596B77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>time</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>实际上是1H级别的信号</t>
   </si>
   <si>
     <t>重复信号</t>
@@ -917,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2542"/>
+  <dimension ref="A1:D2541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -943,13 +940,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1">
-        <v>43665</v>
+        <v>43649</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -957,57 +954,54 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>43649</v>
+        <v>43648</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4" s="1">
-        <v>43648</v>
+        <v>43609</v>
       </c>
       <c r="C4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>43609</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-    </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>43577</v>
+        <v>43572</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
-        <v>6</v>
-      </c>
       <c r="B7" s="1">
-        <v>43572</v>
+        <v>43566</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1018,33 +1012,30 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" s="1">
-        <v>43566</v>
+        <v>43565</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="1">
-        <v>43565</v>
+        <v>43529</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" s="1">
-        <v>43529</v>
+        <v>43468</v>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8639,9 +8630,6 @@
     </row>
     <row r="2541" spans="2:2">
       <c r="B2541" s="1"/>
-    </row>
-    <row r="2542" spans="2:2">
-      <c r="B2542" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Quant/A50/csv/A50.xlsx
+++ b/Quant/A50/csv/A50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\python\Quant\A50\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AD89EC-0EB5-4FAB-8BED-8CF256596B77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C03EED-C95C-41F9-855E-9C10997CE1FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1d" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>time</t>
   </si>
@@ -41,6 +41,57 @@
   </si>
   <si>
     <t>左侧</t>
+  </si>
+  <si>
+    <t>反弹买入点B02</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>实际上是1H的typeA,1D的TypeB5</t>
+  </si>
+  <si>
+    <t>完美</t>
+  </si>
+  <si>
+    <t>3.4新高，之后走出一个反向段</t>
+  </si>
+  <si>
+    <t>[L,2019-02-13 R,2019-02-20 rate,0.49]</t>
+  </si>
+  <si>
+    <t>特征</t>
+  </si>
+  <si>
+    <t>反向段</t>
+  </si>
+  <si>
+    <t>[L,2019-03-04 R,2019-03-05 rate,0.965]</t>
+  </si>
+  <si>
+    <t>GN01 M线值必须同正负</t>
+  </si>
+  <si>
+    <t>Fix</t>
+  </si>
+  <si>
+    <t>GN01</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [L,2018-12-26 R,2018-12-27 rate,0.996]</t>
+  </si>
+  <si>
+    <t>修正</t>
+  </si>
+  <si>
+    <t>反向段 隔日</t>
+  </si>
+  <si>
+    <t>反向段 隔日 左侧</t>
+  </si>
+  <si>
+    <t>TyA类型的无效点！</t>
   </si>
 </sst>
 </file>
@@ -555,10 +606,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -914,194 +971,321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2541"/>
+  <dimension ref="A1:G2548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="1">
+        <v>43665</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <v>43649</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="4" spans="1:7">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <v>43648</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <v>43609</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="3">
         <v>-1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <v>43577</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="7" spans="1:7">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <v>43572</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7" s="1">
+    <row r="8" spans="1:7">
+      <c r="B8" s="1">
         <v>43566</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="B8" s="1">
+    <row r="9" spans="1:7">
+      <c r="B9" s="1">
         <v>43565</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="1">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="1">
+        <v>43531</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="1">
         <v>43529</v>
       </c>
-      <c r="C9">
+      <c r="C11" s="3">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>6</v>
+      <c r="E11" t="s">
+        <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="1">
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="1">
+        <v>43517</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="1">
+        <v>43508</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="B14" s="1">
+        <v>43495</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="B15" s="1">
+        <v>43493</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="1">
         <v>43468</v>
       </c>
-      <c r="C10">
+      <c r="C16" s="3">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2">
+    <row r="17" spans="2:7">
+      <c r="B17" s="1">
+        <v>43462</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1">
+        <v>43286</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1">
+        <v>43251</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="4">
+        <v>-1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1">
+        <v>43208</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:7">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:7">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:7">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:7">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2">
+    <row r="26" spans="2:7">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2">
+    <row r="27" spans="2:7">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2">
+    <row r="28" spans="2:7">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2">
+    <row r="29" spans="2:7">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2">
+    <row r="30" spans="2:7">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2">
+    <row r="31" spans="2:7">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2">
+    <row r="32" spans="2:7">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2">
@@ -8630,6 +8814,27 @@
     </row>
     <row r="2541" spans="2:2">
       <c r="B2541" s="1"/>
+    </row>
+    <row r="2542" spans="2:2">
+      <c r="B2542" s="1"/>
+    </row>
+    <row r="2543" spans="2:2">
+      <c r="B2543" s="1"/>
+    </row>
+    <row r="2544" spans="2:2">
+      <c r="B2544" s="1"/>
+    </row>
+    <row r="2545" spans="2:2">
+      <c r="B2545" s="1"/>
+    </row>
+    <row r="2546" spans="2:2">
+      <c r="B2546" s="1"/>
+    </row>
+    <row r="2547" spans="2:2">
+      <c r="B2547" s="1"/>
+    </row>
+    <row r="2548" spans="2:2">
+      <c r="B2548" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Quant/A50/csv/A50.xlsx
+++ b/Quant/A50/csv/A50.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\python\Quant\A50\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C03EED-C95C-41F9-855E-9C10997CE1FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696F0A55-AD63-43C4-AA3A-EB1DD85E51A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1d" sheetId="1" r:id="rId1"/>
+    <sheet name="待处理" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>time</t>
   </si>
@@ -92,6 +93,12 @@
   </si>
   <si>
     <t>TyA类型的无效点！</t>
+  </si>
+  <si>
+    <t>Ty组合</t>
+  </si>
+  <si>
+    <t>重复</t>
   </si>
 </sst>
 </file>
@@ -974,7 +981,7 @@
   <dimension ref="A1:G2548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1251,27 +1258,77 @@
       <c r="C20" s="3">
         <v>-1</v>
       </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>43199</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>43194</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>43188</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-1</v>
+      </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="1"/>
+      <c r="B24" s="1">
+        <v>43186</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-1</v>
+      </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>43137</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="1"/>
+      <c r="B26" s="1">
+        <v>43129</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="1"/>
+      <c r="B27" s="1">
+        <v>43082</v>
+      </c>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="1"/>
@@ -8841,4 +8898,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6804698E-34E3-4CBF-A4F0-575BA4A34C4B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Quant/A50/csv/A50.xlsx
+++ b/Quant/A50/csv/A50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\python\Quant\A50\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA12C55-41C2-4B57-940E-B9A901395649}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56384FC7-4A7A-44B5-A836-71146DD1AACE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Quant/A50/csv/A50.xlsx
+++ b/Quant/A50/csv/A50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\python\Quant\A50\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56384FC7-4A7A-44B5-A836-71146DD1AACE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3609902-EAF2-4D20-BB97-16D1C5E21609}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>time</t>
   </si>
@@ -156,7 +156,13 @@
     <t>2019-09-05 15:00:00</t>
   </si>
   <si>
-    <t>2019-09-05 14:55:00</t>
+    <t>2019-09-05 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-09-05 10:40:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -677,7 +683,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -693,6 +699,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1049,15 +1058,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C998686-4BF4-4889-A012-856DAC87CDB4}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1088,6 +1098,9 @@
         <v>-1</v>
       </c>
       <c r="C2" s="3"/>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
@@ -1095,6 +1108,23 @@
       </c>
       <c r="B3" s="5">
         <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Quant/A50/csv/A50.xlsx
+++ b/Quant/A50/csv/A50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\python\Quant\A50\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3609902-EAF2-4D20-BB97-16D1C5E21609}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AD1498-7666-45DA-9264-81EBB75B9CB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>time</t>
   </si>
@@ -156,13 +156,25 @@
     <t>2019-09-05 15:00:00</t>
   </si>
   <si>
-    <t>2019-09-05 14:15:00</t>
-  </si>
-  <si>
     <t>2019-09-05 10:40:00</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>2019-09-04 13:45:00</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>2019-09-04 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-09-04 10:55:00</t>
+  </si>
+  <si>
+    <t>300指数这里是完美的。</t>
   </si>
 </sst>
 </file>
@@ -1058,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C998686-4BF4-4889-A012-856DAC87CDB4}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1106,24 +1118,49 @@
       <c r="A3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="8">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Quant/A50/csv/A50.xlsx
+++ b/Quant/A50/csv/A50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\python\Quant\A50\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AD1498-7666-45DA-9264-81EBB75B9CB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA80F48-7662-46E2-83AA-609CC2799D2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>time</t>
   </si>
@@ -175,6 +175,48 @@
   </si>
   <si>
     <t>300指数这里是完美的。</t>
+  </si>
+  <si>
+    <t>2019-09-20 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-09-20 10:15:00</t>
+  </si>
+  <si>
+    <t>TyB3</t>
+  </si>
+  <si>
+    <t>待去掉</t>
+  </si>
+  <si>
+    <t>有效</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>TyA</t>
+  </si>
+  <si>
+    <t>共振</t>
+  </si>
+  <si>
+    <t>15M TyB3</t>
+  </si>
+  <si>
+    <t>2019-09-19 13:35:00</t>
+  </si>
+  <si>
+    <t>是有效的，但是没看懂为啥。。</t>
+  </si>
+  <si>
+    <t>2019-09-18 11:10:00</t>
+  </si>
+  <si>
+    <t>半效</t>
+  </si>
+  <si>
+    <t>2019-09-18 11:15:00</t>
   </si>
 </sst>
 </file>
@@ -354,7 +396,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +576,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -695,7 +743,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -715,6 +763,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1070,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C998686-4BF4-4889-A012-856DAC87CDB4}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1082,7 +1134,7 @@
     <col min="2" max="2" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1093,74 +1145,155 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B10" s="5">
         <v>-1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="E2" t="s">
+      <c r="C10" s="3"/>
+      <c r="F10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B11" s="8">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C11" t="s">
         <v>45</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B12" s="8">
         <v>-1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B13" s="8">
         <v>-1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B14" s="8">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F14" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Quant/A50/csv/A50.xlsx
+++ b/Quant/A50/csv/A50.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\python\Quant\A50\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA80F48-7662-46E2-83AA-609CC2799D2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A9A183-AE2B-4BBD-AFD8-0661DE6D0D60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,19 @@
     <sheet name="1d" sheetId="1" r:id="rId2"/>
     <sheet name="待处理" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>time</t>
   </si>
@@ -153,30 +160,6 @@
     <t>背离指数</t>
   </si>
   <si>
-    <t>2019-09-05 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-09-05 10:40:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>2019-09-04 13:45:00</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>2019-09-04 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-09-04 10:55:00</t>
-  </si>
-  <si>
-    <t>300指数这里是完美的。</t>
-  </si>
-  <si>
     <t>2019-09-20 13:50:00</t>
   </si>
   <si>
@@ -184,9 +167,6 @@
   </si>
   <si>
     <t>TyB3</t>
-  </si>
-  <si>
-    <t>待去掉</t>
   </si>
   <si>
     <t>有效</t>
@@ -204,19 +184,61 @@
     <t>15M TyB3</t>
   </si>
   <si>
-    <t>2019-09-19 13:35:00</t>
-  </si>
-  <si>
-    <t>是有效的，但是没看懂为啥。。</t>
-  </si>
-  <si>
     <t>2019-09-18 11:10:00</t>
   </si>
   <si>
-    <t>半效</t>
+    <t>2019-09-18 11:15:00</t>
   </si>
   <si>
-    <t>2019-09-18 11:15:00</t>
+    <t>f_hl</t>
+  </si>
+  <si>
+    <t>Boll</t>
+  </si>
+  <si>
+    <t>2019-09-20 13:40:00</t>
+  </si>
+  <si>
+    <t>先通道信号 后背离信号</t>
+  </si>
+  <si>
+    <t>2019-09-19 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-09-19 11:15:00</t>
+  </si>
+  <si>
+    <t>TyB5</t>
+  </si>
+  <si>
+    <t>2019-09-19 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-09-19 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-09-18 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-09-20 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-09-19 14:25:00</t>
+  </si>
+  <si>
+    <t>无效</t>
+  </si>
+  <si>
+    <t>通道exit</t>
+  </si>
+  <si>
+    <t>2019-09-18 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-09-17 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-09-17 14:30:00</t>
   </si>
 </sst>
 </file>
@@ -396,7 +418,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,8 +604,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -698,8 +726,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -742,15 +785,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="10" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -763,12 +807,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="18" borderId="0" xfId="27" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="10" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -792,18 +838,19 @@
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" hidden="1" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" hidden="1" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" hidden="1" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="同一信号" xfId="42" xr:uid="{55B2F5B2-2A9B-4C09-903A-7CE223283DC5}"/>
     <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -1122,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C998686-4BF4-4889-A012-856DAC87CDB4}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1139,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1158,144 +1205,205 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="6" t="s">
-        <v>51</v>
+      <c r="A2" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="12" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="D3" t="s">
-        <v>53</v>
+      <c r="F3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="6" t="s">
-        <v>60</v>
+      <c r="A4" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="B4" s="5">
         <v>-1</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="F4" t="s">
-        <v>61</v>
+      <c r="D4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10" t="s">
-        <v>64</v>
+      <c r="A5" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>63</v>
+      <c r="D5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10" t="s">
-        <v>62</v>
+      <c r="A6" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>63</v>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="5"/>
+      <c r="A7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-1</v>
+      </c>
       <c r="C7" s="3"/>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="B8" s="5"/>
+      <c r="A8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
       <c r="C8" s="3"/>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="8">
+        <v>-1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="F10" t="s">
-        <v>10</v>
+        <v>61</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
+        <v>-1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="8">
         <v>-1</v>
       </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="8">
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="5">
         <v>-1</v>
       </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>10</v>
-      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
